--- a/cpm3.xlsx
+++ b/cpm3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14630" windowHeight="6950"/>
+    <workbookView windowWidth="14630" windowHeight="6910"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -107,14 +107,14 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;NT$&quot;* #,##0.00_-;\-&quot;NT$&quot;* #,##0.00_-;_-&quot;NT$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;NT$&quot;* #,##0_-;\-&quot;NT$&quot;* #,##0_-;_-&quot;NT$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;NT$&quot;* #,##0_-;\-&quot;NT$&quot;* #,##0_-;_-&quot;NT$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;NT$&quot;* #,##0.00_-;\-&quot;NT$&quot;* #,##0.00_-;_-&quot;NT$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -132,23 +132,46 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -156,51 +179,46 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -208,7 +226,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -216,23 +234,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -240,45 +242,43 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -292,25 +292,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,157 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +483,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,6 +515,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,63 +575,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -586,148 +586,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -737,55 +737,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="入力" xfId="2" builtinId="20"/>
-    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
-    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
-    <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
-    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
-    <cellStyle name="メモ" xfId="12" builtinId="10"/>
-    <cellStyle name="良い" xfId="13" builtinId="26"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11"/>
-    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
-    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
-    <cellStyle name="説明文" xfId="17" builtinId="53"/>
-    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
-    <cellStyle name="出力" xfId="19" builtinId="21"/>
-    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
-    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
-    <cellStyle name="計算" xfId="22" builtinId="22"/>
-    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
-    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
-    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
-    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
-    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
-    <cellStyle name="集計" xfId="28" builtinId="25"/>
-    <cellStyle name="悪い" xfId="29" builtinId="27"/>
-    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
-    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
-    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
-    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
-    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
-    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
-    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
-    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
-    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
-    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
-    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1054,201 +1054,202 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:B37"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="16" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="2" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="2" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="2" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="2" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="2" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>